--- a/Data/EC/NIT-9013833686.xlsx
+++ b/Data/EC/NIT-9013833686.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA8D5E3B-E1F2-477B-A6CA-6C85B55E14CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC0B9575-067D-4F68-B8EA-21A372A5C916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9003D4BC-8756-4759-90F6-11F4EEC78390}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AB824A66-2E17-4E65-A67E-E9E8E02D094C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,64 +65,64 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128055824</t>
+  </si>
+  <si>
+    <t>JONATHAN TERAN TORRES</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>92500773</t>
+  </si>
+  <si>
+    <t>ALFONSO RAFAEL TERAN MONTES</t>
+  </si>
+  <si>
+    <t>1002322447</t>
+  </si>
+  <si>
+    <t>LEONARDO ENRIQUE MARIMON SANDOVAL</t>
+  </si>
+  <si>
     <t>1002257296</t>
   </si>
   <si>
     <t>MAICKOL ANDRES POLO SILVA</t>
   </si>
   <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>92500773</t>
-  </si>
-  <si>
-    <t>ALFONSO RAFAEL TERAN MONTES</t>
-  </si>
-  <si>
-    <t>1128055824</t>
-  </si>
-  <si>
-    <t>JONATHAN TERAN TORRES</t>
-  </si>
-  <si>
-    <t>1002322447</t>
-  </si>
-  <si>
-    <t>LEONARDO ENRIQUE MARIMON SANDOVAL</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -536,7 +536,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4CCC2B-A363-2CE4-5F86-D3EEFEE737C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1839125C-A6FE-AA9A-5905-7EAD2E6F2061}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF107F8-2546-434C-BA56-1B16B632A410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F379BB47-C176-4D2E-9E89-59D450B3FA27}">
   <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1065,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1194,13 +1194,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1217,16 +1217,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G23" s="18">
         <v>908526</v>
@@ -1240,13 +1240,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>36341</v>
@@ -1263,13 +1263,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1286,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1309,13 +1309,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1332,13 +1332,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>36341</v>
@@ -1355,13 +1355,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>36341</v>
@@ -1378,13 +1378,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F30" s="18">
         <v>36341</v>
@@ -1401,16 +1401,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G31" s="18">
         <v>908526</v>
@@ -1424,13 +1424,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F32" s="18">
         <v>36341</v>
@@ -1447,13 +1447,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F33" s="18">
         <v>36341</v>
@@ -1470,13 +1470,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F34" s="18">
         <v>36341</v>
@@ -1493,13 +1493,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F35" s="18">
         <v>36341</v>
@@ -1516,13 +1516,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F36" s="18">
         <v>36341</v>
@@ -1539,13 +1539,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F37" s="18">
         <v>36341</v>
@@ -1562,13 +1562,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
@@ -1585,13 +1585,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
         <v>36341</v>
@@ -1608,16 +1608,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G40" s="18">
         <v>908526</v>
@@ -1631,16 +1631,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G41" s="18">
         <v>908526</v>
@@ -1654,16 +1654,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="24">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G42" s="24">
         <v>908526</v>

--- a/Data/EC/NIT-9013833686.xlsx
+++ b/Data/EC/NIT-9013833686.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC0B9575-067D-4F68-B8EA-21A372A5C916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B77EFB9-CE55-44FF-855F-745CF797F78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AB824A66-2E17-4E65-A67E-E9E8E02D094C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89D4E19E-033F-4169-86F2-240C97FB2916}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,64 +65,64 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1002257296</t>
+  </si>
+  <si>
+    <t>MAICKOL ANDRES POLO SILVA</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
     <t>1128055824</t>
   </si>
   <si>
     <t>JONATHAN TERAN TORRES</t>
   </si>
   <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>92500773</t>
+  </si>
+  <si>
+    <t>ALFONSO RAFAEL TERAN MONTES</t>
+  </si>
+  <si>
+    <t>1002322447</t>
+  </si>
+  <si>
+    <t>LEONARDO ENRIQUE MARIMON SANDOVAL</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
     <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>92500773</t>
-  </si>
-  <si>
-    <t>ALFONSO RAFAEL TERAN MONTES</t>
-  </si>
-  <si>
-    <t>1002322447</t>
-  </si>
-  <si>
-    <t>LEONARDO ENRIQUE MARIMON SANDOVAL</t>
-  </si>
-  <si>
-    <t>1002257296</t>
-  </si>
-  <si>
-    <t>MAICKOL ANDRES POLO SILVA</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -221,7 +221,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -234,9 +236,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -436,23 +436,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,10 +480,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,7 +536,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1839125C-A6FE-AA9A-5905-7EAD2E6F2061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEA3EE3-0C10-CDD8-A5BD-DA64C1D14482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F379BB47-C176-4D2E-9E89-59D450B3FA27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1398D08A-EB3D-44DA-8F36-9C7643EC5032}">
   <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1065,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1171,13 +1171,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>36341</v>
@@ -1194,13 +1194,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1217,16 +1217,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F23" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G23" s="18">
         <v>908526</v>
@@ -1240,13 +1240,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>36341</v>
@@ -1263,13 +1263,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1286,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1309,13 +1309,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1332,13 +1332,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
         <v>36341</v>
@@ -1355,13 +1355,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>36341</v>
@@ -1378,13 +1378,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18">
         <v>36341</v>
@@ -1401,16 +1401,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G31" s="18">
         <v>908526</v>
@@ -1424,13 +1424,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
         <v>36341</v>
@@ -1447,13 +1447,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
         <v>36341</v>
@@ -1470,13 +1470,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>36341</v>
@@ -1493,13 +1493,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>36341</v>
@@ -1516,13 +1516,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
         <v>36341</v>
@@ -1539,13 +1539,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
         <v>36341</v>
@@ -1562,13 +1562,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
@@ -1585,13 +1585,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
         <v>36341</v>
@@ -1608,16 +1608,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F40" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G40" s="18">
         <v>908526</v>
@@ -1631,16 +1631,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G41" s="18">
         <v>908526</v>
@@ -1654,16 +1654,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="24">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G42" s="24">
         <v>908526</v>
